--- a/biology/Médecine/1260_en_santé_et_médecine/1260_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1260_en_santé_et_médecine/1260_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1260_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1260_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1260 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1260_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1260_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Chine, Kublai Khan réorganise l’assistance publique : il « ordonne aux vice-rois de subvenir  aux besoins des lettrés âgés, des orphelins, des malades, des infirmes » et, en 1271, il instituera des « maisons d'hospitalisation[1] ».
-Pour desservir leur nouvelle abbaye, les moines bénédictins de Tiron construisent près d'Arbroath en Écosse, sur le site de l'actuelle Hospitalfield House, un hôpital destiné à l'accueil des pèlerins[2].
-Boniface de Savoie, archevêque de Cantorbéry, fonde pour les pèlerins qui franchissent la Medway à Maidstone, dans le Kent, un hôpital dit du « New Work » (« Newark ») qu'il place sous le patronage des saints Pierre et Paul[3].
-Selon des documents tardifs, Roger IV, comte de Foix, fait construire à Ax un bassin des ladres pour servir à la léproserie qu'il vient de fonder[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Chine, Kublai Khan réorganise l’assistance publique : il « ordonne aux vice-rois de subvenir  aux besoins des lettrés âgés, des orphelins, des malades, des infirmes » et, en 1271, il instituera des « maisons d'hospitalisation ».
+Pour desservir leur nouvelle abbaye, les moines bénédictins de Tiron construisent près d'Arbroath en Écosse, sur le site de l'actuelle Hospitalfield House, un hôpital destiné à l'accueil des pèlerins.
+Boniface de Savoie, archevêque de Cantorbéry, fonde pour les pèlerins qui franchissent la Medway à Maidstone, dans le Kent, un hôpital dit du « New Work » (« Newark ») qu'il place sous le patronage des saints Pierre et Paul.
+Selon des documents tardifs, Roger IV, comte de Foix, fait construire à Ax un bassin des ladres pour servir à la léproserie qu'il vient de fonder.
 Vers 1260
-Fondation de l'hôpital des Quinze-Vingts par Louis IX, roi de France[5].
-Le roi Louis IX fonde la confrérie des chirurgiens[6], qui prend le nom de confrérie de Saint-Côme et de Saint-Damien, première association de chirurgiens en France[7],[8].</t>
+Fondation de l'hôpital des Quinze-Vingts par Louis IX, roi de France.
+Le roi Louis IX fonde la confrérie des chirurgiens, qui prend le nom de confrérie de Saint-Côme et de Saint-Damien, première association de chirurgiens en France,.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1260_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1260_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,10 +561,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ibn Tibbon traduit de l'arabe en hébreu le Canon d'Avicenne avec le commentaire d'Averroès[9].
-1260-1264 : Gérard du Breuil rédige son commentaire au De animalibus d'Aristote, ouvrage dans lequel « un grand nombre des questions traitées intéresse directement la médecine humaine, l'anatomie et la physiologie[9] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ibn Tibbon traduit de l'arabe en hébreu le Canon d'Avicenne avec le commentaire d'Averroès.
+1260-1264 : Gérard du Breuil rédige son commentaire au De animalibus d'Aristote, ouvrage dans lequel « un grand nombre des questions traitées intéresse directement la médecine humaine, l'anatomie et la physiologie ».</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1260_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1260_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,14 +594,16 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Guy de Cercelles, médecin à Paris ; retiré au prieuré Sainte-Catherine-de-la-Couture tenu pas les chanoines du Val-des-Écoliers[10].
-Fl. Guillaume de Gremerviler, médecin à Beauvais[10].
-Fl. Pierre Guazanhaire, chancelier de l'université de médecine de Montpellier[11].
-1260-1272 : fl. Bernard Calcadelli, docteur en médecine à Montpellier, obtient de Jacques Ier, roi d'Aragon, que la pratique de la médecine soit soumise à examen dans sa seigneurie de Montpellier[10].
-1260-1273 : fl. Roger, médecin à Auch en Gascogne[11].
-1260-1281 : fl. Guillaume Roberti, né à Montpellier, licencié en médecine, vice-chancelier de l'université[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Guy de Cercelles, médecin à Paris ; retiré au prieuré Sainte-Catherine-de-la-Couture tenu pas les chanoines du Val-des-Écoliers.
+Fl. Guillaume de Gremerviler, médecin à Beauvais.
+Fl. Pierre Guazanhaire, chancelier de l'université de médecine de Montpellier.
+1260-1272 : fl. Bernard Calcadelli, docteur en médecine à Montpellier, obtient de Jacques Ier, roi d'Aragon, que la pratique de la médecine soit soumise à examen dans sa seigneurie de Montpellier.
+1260-1273 : fl. Roger, médecin à Auch en Gascogne.
+1260-1281 : fl. Guillaume Roberti, né à Montpellier, licencié en médecine, vice-chancelier de l'université.</t>
         </is>
       </c>
     </row>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1260_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1260_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,10 +631,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Henri de Mondeville (mort après 1322), chirurgien des rois de France Philippe le Bel et Louis X le Hutin, auteur d'un traité de « Chirurgie » rédigé entre 1306 et 1320, ouvrage d'une grande autorité et le premier qui ait été publié sur ce thème en français[12].
-Vers 1260 : Jean Yperman (mort vers 1310), chirurgien flamand, auteur d'un traité de médecine pratique et d'un autre de chirurgie[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Henri de Mondeville (mort après 1322), chirurgien des rois de France Philippe le Bel et Louis X le Hutin, auteur d'un traité de « Chirurgie » rédigé entre 1306 et 1320, ouvrage d'une grande autorité et le premier qui ait été publié sur ce thème en français.
+Vers 1260 : Jean Yperman (mort vers 1310), chirurgien flamand, auteur d'un traité de médecine pratique et d'un autre de chirurgie.</t>
         </is>
       </c>
     </row>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1260_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1260_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,10 +664,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1er mars 1259 ou 1260 : Richard de Fournival (né en 1201), médecin, alchimiste, poète, clerc et érudit français[13].
-Entre 1260 et 1264 : Vincent de Beauvais (né vers 1190), familier de la cour sous Louis IX, chargé de rédiger un règlement pour l'hôtel-Dieu de Beauvais, et auteur du Speculum majus, encyclopédie « qui réserve une place importante à la médecine[11] ».</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er mars 1259 ou 1260 : Richard de Fournival (né en 1201), médecin, alchimiste, poète, clerc et érudit français.
+Entre 1260 et 1264 : Vincent de Beauvais (né vers 1190), familier de la cour sous Louis IX, chargé de rédiger un règlement pour l'hôtel-Dieu de Beauvais, et auteur du Speculum majus, encyclopédie « qui réserve une place importante à la médecine ».</t>
         </is>
       </c>
     </row>
